--- a/teg_asovac_src/static_env/media_root/cargamasiva/Coordinadores_de_área.xlsx
+++ b/teg_asovac_src/static_env/media_root/cargamasiva/Coordinadores_de_área.xlsx
@@ -242,7 +242,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
